--- a/lotto/excel.xlsx
+++ b/lotto/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{324AE7E9-EC1F-4F60-BD7E-89BBACEA7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D410242-2A6D-4CB7-BB74-7E1900E77D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
